--- a/data/outputs/OR_elsevier/48.xlsx
+++ b/data/outputs/OR_elsevier/48.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84923550538</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84942365255</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1375,6 +1397,12 @@
           <t>2-s2.0-84922517608</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1597,6 +1625,12 @@
         <is>
           <t>2-s2.0-84923579886</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1805,6 +1839,12 @@
           <t>2-s2.0-84920738745</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2020,6 +2060,12 @@
           <t>2-s2.0-84933528198</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2239,6 +2285,12 @@
           <t>2-s2.0-84933674656</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2458,6 +2510,12 @@
           <t>2-s2.0-84923604788</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2673,6 +2731,12 @@
           <t>2-s2.0-85027931407</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2888,6 +2952,12 @@
           <t>2-s2.0-84923632656</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3103,6 +3173,12 @@
           <t>2-s2.0-84933677250</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3322,6 +3398,12 @@
           <t>2-s2.0-84923577229</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3547,6 +3629,12 @@
           <t>2-s2.0-84940451914</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3762,6 +3850,12 @@
           <t>2-s2.0-85028232186</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3969,6 +4063,12 @@
           <t>2-s2.0-84938741923</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4184,6 +4284,12 @@
           <t>2-s2.0-84942368707</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4409,6 +4515,12 @@
           <t>2-s2.0-84940448141</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4640,6 +4752,12 @@
           <t>2-s2.0-84920991987</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4878,6 +4996,12 @@
         <is>
           <t>2-s2.0-84920935753</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -5089,6 +5213,12 @@
         <is>
           <t>2-s2.0-84938584953</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -5297,6 +5427,12 @@
           <t>2-s2.0-84942373533</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5520,6 +5656,12 @@
           <t>2-s2.0-84942365977</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5734,6 +5876,12 @@
         <is>
           <t>2-s2.0-84923551748</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -5942,6 +6090,12 @@
           <t>2-s2.0-84942372902</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6165,6 +6319,12 @@
           <t>2-s2.0-84933671405</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6376,6 +6536,12 @@
           <t>2-s2.0-84938744441</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6591,6 +6757,12 @@
           <t>2-s2.0-84938742683</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6814,6 +6986,12 @@
           <t>2-s2.0-84942371679</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7037,6 +7215,12 @@
           <t>2-s2.0-84940449616</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7276,6 +7460,12 @@
           <t>2-s2.0-84920903811</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7502,6 +7692,12 @@
         <is>
           <t>2-s2.0-84920942195</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -7721,6 +7917,12 @@
         <is>
           <t>2-s2.0-84938739199</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -7929,6 +8131,12 @@
           <t>2-s2.0-84942364621</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8136,6 +8344,12 @@
           <t>2-s2.0-84942372196</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8355,6 +8569,12 @@
           <t>2-s2.0-84942365634</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8574,6 +8794,12 @@
           <t>2-s2.0-84940448810</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8797,6 +9023,12 @@
           <t>2-s2.0-84940450103</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9008,6 +9240,12 @@
           <t>2-s2.0-84933519768</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9231,6 +9469,12 @@
           <t>2-s2.0-84933672462</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9442,6 +9686,12 @@
           <t>2-s2.0-84938748103</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9677,6 +9927,12 @@
           <t>2-s2.0-84920939771</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9903,6 +10159,12 @@
         <is>
           <t>2-s2.0-84920986607</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -10119,6 +10381,12 @@
           <t>2-s2.0-84942371676</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10334,6 +10602,12 @@
           <t>2-s2.0-84942371978</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10549,6 +10823,12 @@
           <t>2-s2.0-84940452523</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10764,6 +11044,12 @@
           <t>2-s2.0-84933673710</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10975,6 +11261,12 @@
           <t>2-s2.0-84933675530</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11194,6 +11486,12 @@
           <t>2-s2.0-84923546062</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11405,6 +11703,12 @@
           <t>2-s2.0-84938740871</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11616,6 +11920,12 @@
           <t>2-s2.0-84938748403</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11827,6 +12137,12 @@
           <t>2-s2.0-84940451204</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12041,6 +12357,12 @@
         <is>
           <t>2-s2.0-84940451586</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -12248,6 +12570,12 @@
         <is>
           <t>2-s2.0-84933678513</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -12440,6 +12768,12 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12657,6 +12991,12 @@
           <t>2-s2.0-84933672508</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12875,6 +13215,12 @@
         <is>
           <t>2-s2.0-84923549978</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -13099,6 +13445,12 @@
           <t>2-s2.0-84920999643</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13310,6 +13662,12 @@
           <t>2-s2.0-84938742185</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13521,6 +13879,12 @@
           <t>2-s2.0-84938750216</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13732,6 +14096,12 @@
           <t>2-s2.0-84938748696</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13946,6 +14316,12 @@
         <is>
           <t>2-s2.0-84938750993</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -14146,6 +14522,12 @@
           <t>2-s2.0-84920876745</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14377,6 +14759,12 @@
           <t>2-s2.0-84920956332</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
